--- a/xlsx/塞拉尼拉浅滩_intext.xlsx
+++ b/xlsx/塞拉尼拉浅滩_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>塞拉尼拉浅滩</t>
   </si>
@@ -29,7 +29,7 @@
     <t>塞拉纳浅滩</t>
   </si>
   <si>
-    <t>政策_政策_美國_塞拉尼拉浅滩</t>
+    <t>政策_政策_美国_塞拉尼拉浅滩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E6%B5%B7</t>
@@ -71,13 +71,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
   </si>
 </sst>
 </file>
@@ -709,7 +706,7 @@
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
